--- a/docx/Binominal_Tree.xlsx
+++ b/docx/Binominal_Tree.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>S(0)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Potswietlenie</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -245,6 +248,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Calculate</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,8 +608,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,6 +640,9 @@
       <c r="B3" s="2">
         <f>5/12</f>
         <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1061,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -1107,6 +1181,9 @@
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -1140,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1148,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1.1191654823033836</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1156,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>0.49038817226429171</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1395,5 +1472,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Arkusz2.Pobieranie">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>